--- a/app/src/scripts/Production training list.xlsx
+++ b/app/src/scripts/Production training list.xlsx
@@ -1,44 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Work projects\trainings-system\server\src\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitaly\Work projects\trainings-system\server\src\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D7B7E9-4EFE-4704-A384-D0F0E10A9B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BCB695-4539-4261-80FF-5D78C99D447A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7770" windowWidth="16440" windowHeight="28440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of workers" sheetId="1" r:id="rId1"/>
     <sheet name="List of Trainings" sheetId="2" r:id="rId2"/>
     <sheet name="List of Departments" sheetId="3" r:id="rId3"/>
-    <sheet name="Workers Vs Trainings" sheetId="5" r:id="rId4"/>
-    <sheet name="Departments Vs Trainings" sheetId="6" r:id="rId5"/>
+    <sheet name="Departments Vs Trainings" sheetId="6" r:id="rId4"/>
+    <sheet name="Workers Vs Trainings" sheetId="5" r:id="rId5"/>
     <sheet name="From - To" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List of workers'!$A$1:$D$63</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="165">
   <si>
     <t>#</t>
   </si>
@@ -527,6 +522,12 @@
   </si>
   <si>
     <t>Delta</t>
+  </si>
+  <si>
+    <t>General safety</t>
+  </si>
+  <si>
+    <t>Flame Packaging</t>
   </si>
 </sst>
 </file>
@@ -653,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -713,6 +714,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,11 +1051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:D63"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1078,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>113</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>131</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>132</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>911</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>105</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>137</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>940</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>161</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>169</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>185</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>124</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>190</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>134</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>175</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>266</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>274</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>279</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>151</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>182</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>191</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>196</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>216</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>284</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>287</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>117</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>101</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>156</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>106</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>108</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>145</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>146</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>147</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>154</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>157</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>176</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>177</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>489</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>405</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>119</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>184</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>189</v>
       </c>
@@ -1915,22 +1918,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:D63" xr:uid="{4A3E324E-B2DE-421D-AADD-48FEA49C3BCE}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Military Assembly"/>
-        <filter val="Military Harness"/>
-        <filter val="Military Line Manager"/>
-        <filter val="Military Printed Circuit"/>
-        <filter val="Military squibs"/>
-        <filter val="Military Testing"/>
-        <filter val="Military Wiring"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D63" xr:uid="{4A3E324E-B2DE-421D-AADD-48FEA49C3BCE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1941,7 +1930,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,72 +1940,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -2026,40 +2015,43 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>148</v>
+      <c r="A18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>151</v>
+      <c r="A21" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A22">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2071,9 +2063,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2092,7 +2082,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2166,12 +2156,944 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24599AE5-744C-4347-905A-D01D0834EED0}">
+  <dimension ref="A1:X37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21">
+        <v>1</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21">
+        <v>1</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21">
+        <v>1</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+      <c r="H6" s="21">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
+      <c r="L6" s="21">
+        <v>1</v>
+      </c>
+      <c r="M6" s="21">
+        <v>1</v>
+      </c>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="H7" s="21">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21">
+        <v>1</v>
+      </c>
+      <c r="O7" s="21">
+        <v>1</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21">
+        <v>1</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21">
+        <v>1</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="21">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21">
+        <v>1</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21">
+        <v>1</v>
+      </c>
+      <c r="R9" s="21">
+        <v>1</v>
+      </c>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21">
+        <v>1</v>
+      </c>
+      <c r="M11" s="21">
+        <v>1</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="21">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21">
+        <v>1</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="21">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21">
+        <v>1</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21">
+        <v>1</v>
+      </c>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21">
+        <v>1</v>
+      </c>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21">
+        <v>1</v>
+      </c>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21">
+        <v>1</v>
+      </c>
+      <c r="V14" s="21">
+        <v>1</v>
+      </c>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="21">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21">
+        <v>1</v>
+      </c>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21">
+        <v>1</v>
+      </c>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21">
+        <v>1</v>
+      </c>
+      <c r="V15" s="21">
+        <v>1</v>
+      </c>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="21">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21">
+        <v>1</v>
+      </c>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21">
+        <v>1</v>
+      </c>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="21">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21">
+        <v>1</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21">
+        <v>1</v>
+      </c>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21">
+        <v>1</v>
+      </c>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21">
+        <v>1</v>
+      </c>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21">
+        <v>1</v>
+      </c>
+      <c r="X18" s="21"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:W11 B12:X17">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X11">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:X18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEA20EC-AD61-432B-B3BA-FC3AE4A1161A}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,7 +3113,7 @@
       </c>
       <c r="B1" s="18">
         <f ca="1">TODAY()</f>
-        <v>44047</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="195" x14ac:dyDescent="0.25">
@@ -4474,859 +5396,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24599AE5-744C-4347-905A-D01D0834EED0}">
-  <dimension ref="A1:X18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="195" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="21">
-        <v>1</v>
-      </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21">
-        <v>1</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="21">
-        <v>1</v>
-      </c>
-      <c r="G2" s="21">
-        <v>1</v>
-      </c>
-      <c r="H2" s="21">
-        <v>1</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21">
-        <v>1</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="21">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21">
-        <v>1</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21">
-        <v>1</v>
-      </c>
-      <c r="H3" s="21">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21">
-        <v>1</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="21">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
-        <v>1</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21">
-        <v>1</v>
-      </c>
-      <c r="J4" s="21">
-        <v>1</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21">
-        <v>1</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21">
-        <v>1</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="21">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21">
-        <v>1</v>
-      </c>
-      <c r="H6" s="21">
-        <v>1</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
-      <c r="L6" s="21">
-        <v>1</v>
-      </c>
-      <c r="M6" s="21">
-        <v>1</v>
-      </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="21">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21">
-        <v>1</v>
-      </c>
-      <c r="H7" s="21">
-        <v>1</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21">
-        <v>1</v>
-      </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21">
-        <v>1</v>
-      </c>
-      <c r="O7" s="21">
-        <v>1</v>
-      </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="21">
-        <v>1</v>
-      </c>
-      <c r="C8" s="21">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21">
-        <v>1</v>
-      </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21">
-        <v>1</v>
-      </c>
-      <c r="H8" s="21">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21">
-        <v>1</v>
-      </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21">
-        <v>1</v>
-      </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="21">
-        <v>1</v>
-      </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21">
-        <v>1</v>
-      </c>
-      <c r="H9" s="21">
-        <v>1</v>
-      </c>
-      <c r="I9" s="21">
-        <v>1</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21">
-        <v>1</v>
-      </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21">
-        <v>1</v>
-      </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21">
-        <v>1</v>
-      </c>
-      <c r="R9" s="21">
-        <v>1</v>
-      </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21">
-        <v>1</v>
-      </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="21">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21">
-        <v>1</v>
-      </c>
-      <c r="D11" s="21">
-        <v>1</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21">
-        <v>1</v>
-      </c>
-      <c r="H11" s="21">
-        <v>1</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21">
-        <v>1</v>
-      </c>
-      <c r="L11" s="21">
-        <v>1</v>
-      </c>
-      <c r="M11" s="21">
-        <v>1</v>
-      </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="21">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21">
-        <v>1</v>
-      </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
-      <c r="G12" s="21">
-        <v>1</v>
-      </c>
-      <c r="H12" s="21">
-        <v>1</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21">
-        <v>1</v>
-      </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="21">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
-      <c r="D13" s="21">
-        <v>1</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21">
-        <v>1</v>
-      </c>
-      <c r="H13" s="21">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21">
-        <v>1</v>
-      </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21">
-        <v>1</v>
-      </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="21">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21">
-        <v>1</v>
-      </c>
-      <c r="D14" s="21">
-        <v>1</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21">
-        <v>1</v>
-      </c>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21">
-        <v>1</v>
-      </c>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21">
-        <v>1</v>
-      </c>
-      <c r="V14" s="21">
-        <v>1</v>
-      </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="21">
-        <v>1</v>
-      </c>
-      <c r="C15" s="21">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21">
-        <v>1</v>
-      </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21">
-        <v>1</v>
-      </c>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21">
-        <v>1</v>
-      </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21">
-        <v>1</v>
-      </c>
-      <c r="V15" s="21">
-        <v>1</v>
-      </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="21">
-        <v>1</v>
-      </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="21">
-        <v>1</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21">
-        <v>1</v>
-      </c>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21">
-        <v>1</v>
-      </c>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="21">
-        <v>1</v>
-      </c>
-      <c r="C17" s="21">
-        <v>1</v>
-      </c>
-      <c r="D17" s="21">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21">
-        <v>1</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21">
-        <v>1</v>
-      </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21">
-        <v>1</v>
-      </c>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21">
-        <v>1</v>
-      </c>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="21">
-        <v>1</v>
-      </c>
-      <c r="C18" s="21">
-        <v>1</v>
-      </c>
-      <c r="D18" s="21">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21">
-        <v>1</v>
-      </c>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21">
-        <v>1</v>
-      </c>
-      <c r="X18" s="21"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:W11 B12:X17">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X11">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:X18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC54621E-E901-49BD-9D31-77619BA4347F}">
   <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5563,10 +5638,12 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="21" t="e">
+      <c r="A4" s="23">
+        <v>113</v>
+      </c>
+      <c r="B4" s="21" t="str">
         <f>VLOOKUP(A4,'Workers Vs Trainings'!A:D,4,0)</f>
-        <v>#N/A</v>
+        <v>Connection Boxes</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>116</v>
@@ -5574,97 +5651,97 @@
       <c r="E4" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="24" t="e">
+      <c r="F4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,F1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G4" s="24" t="e">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,G1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H4" s="24" t="e">
+        <v>1</v>
+      </c>
+      <c r="H4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,H1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" s="24" t="e">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,I1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" s="24" t="e">
+        <v>1</v>
+      </c>
+      <c r="J4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,J1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K4" s="24" t="e">
+        <v>1</v>
+      </c>
+      <c r="K4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,K1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L4" s="24" t="e">
+        <v>1</v>
+      </c>
+      <c r="L4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,L1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M4" s="24" t="e">
+        <v>1</v>
+      </c>
+      <c r="M4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,M1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="N4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,N1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="O4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,O1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P4" s="24" t="e">
+        <v>1</v>
+      </c>
+      <c r="P4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,P1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,Q1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="R4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,R1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="S4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,S1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="T4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,T1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="U4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,U1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="V4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,V1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="W4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,W1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="X4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,X1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,Y1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,Z1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,AA1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="24">
         <f>IF(VLOOKUP($A$4,'Workers Vs Trainings'!$A:$AA,AB1,0)&lt;&gt;0,1,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5768,97 +5845,97 @@
       <c r="E6" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="24" t="e">
+      <c r="F6" s="24" t="str">
         <f>IF(F4&lt;F5,"Yes","No ")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="G6" s="24" t="str">
         <f t="shared" ref="G6:AB6" si="0">IF(G4&lt;G5,"Yes","No ")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="H6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="I6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="J6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="K6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="L6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="M6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N6" s="24" t="e">
+        <v>Yes</v>
+      </c>
+      <c r="N6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="O6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="P6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="Q6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R6" s="24" t="e">
+        <v>Yes</v>
+      </c>
+      <c r="R6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="S6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="T6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="U6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V6" s="24" t="e">
+        <v>Yes</v>
+      </c>
+      <c r="V6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W6" s="24" t="e">
+        <v>Yes</v>
+      </c>
+      <c r="W6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="X6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="Y6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="Z6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="AA6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB6" s="24" t="e">
+        <v xml:space="preserve">No </v>
+      </c>
+      <c r="AB6" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v xml:space="preserve">No </v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
